--- a/feature/change-stu-note/ig/ValueSet-sas-valueset-categorieetablissement.xlsx
+++ b/feature/change-stu-note/ig/ValueSet-sas-valueset-categorieetablissement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T08:11:06+00:00</t>
+    <t>2024-12-17T08:14:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
